--- a/AdventureWorks Result Table and Visualization in.xlsx
+++ b/AdventureWorks Result Table and Visualization in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\git\AdventureWork_SQL_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5042D0-2CEB-4D09-8A77-94EEB0730E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483077D9-0413-438F-8550-B7B2A87392EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Country</t>
   </si>
@@ -85,6 +85,12 @@
   <si>
     <t>Revenue by Location(Country and Continent) for Internet Sales and Reseller</t>
   </si>
+  <si>
+    <t>internetRevenue</t>
+  </si>
+  <si>
+    <t>resellerRevenue</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +100,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +139,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,42 +192,105 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -268,6 +344,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
@@ -318,7 +419,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -343,7 +444,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3261,11 +3362,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A2:B9" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="10" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3280,21 +3381,34 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DD53462D-BE37-42E9-9B55-0B711B9175B7}" name="Country"/>
     <tableColumn id="2" xr3:uid="{1F6F0254-2499-4323-B53E-74C9B0E47F11}" name="Continent"/>
-    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A12:B19" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B19">
     <sortCondition descending="1" ref="B12:B19"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="H2:K8" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3600,7 +3714,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,18 +3725,21 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3640,6 +3757,18 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3657,6 +3786,18 @@
       <c r="F3" s="5">
         <v>105362939186.95</v>
       </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10">
+        <v>9333382531.4799995</v>
+      </c>
+      <c r="K3" s="10">
+        <v>25608695842.73</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3673,6 +3814,18 @@
       </c>
       <c r="F4" s="5">
         <v>22634456601.869999</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5322640389.9499998</v>
+      </c>
+      <c r="K4" s="10">
+        <v>11159932709.809999</v>
       </c>
       <c r="L4" s="6"/>
     </row>
@@ -3692,9 +3845,21 @@
       <c r="F5" s="5">
         <v>15521494001.08</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10">
+        <v>22634456601.869999</v>
+      </c>
+      <c r="K5" s="10">
+        <v>109559793045.33</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
@@ -3708,6 +3873,18 @@
       </c>
       <c r="F6" s="5">
         <v>11938826982.370001</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10">
+        <v>15521494001.08</v>
+      </c>
+      <c r="K6" s="10">
+        <v>21276405602.060001</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3726,6 +3903,18 @@
       <c r="F7" s="5">
         <v>9333382531.4799995</v>
       </c>
+      <c r="H7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10">
+        <v>11938826982.370001</v>
+      </c>
+      <c r="K7" s="10">
+        <v>29550834956.5</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3742,6 +3931,18 @@
       </c>
       <c r="F8" s="5">
         <v>5322640389.9499998</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
+        <v>105362939186.95</v>
+      </c>
+      <c r="K8" s="10">
+        <v>338971891689.64001</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -3822,7 +4023,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3835,12 +4036,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF8C0E84-F88C-406F-846C-F9425E991722}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3855,6 +4071,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F3:F8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF8C0E84-F88C-406F-846C-F9425E991722}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J3:K8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdventureWorks Result Table and Visualization in.xlsx
+++ b/AdventureWorks Result Table and Visualization in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\git\AdventureWork_SQL_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483077D9-0413-438F-8550-B7B2A87392EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A41FB-31B0-40A0-81BF-5DA9E5B222AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Country</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>resellerRevenue</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Bikes</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Clothing</t>
   </si>
 </sst>
 </file>
@@ -195,44 +207,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
       <font>
@@ -263,6 +250,34 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1613,6 +1628,458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:numFmt formatCode="#,##0.00,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-48D7-46B7-B9D9-33420C50A1C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:numFmt formatCode="#,##0.00,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-48D7-46B7-B9D9-33420C50A1C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00,,,&quot;B&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$D$13:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bikes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$E$13:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5514174492.6599998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128262539.06999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101053213.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48D7-46B7-B9D9-33420C50A1C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="22"/>
+        <c:axId val="1997084080"/>
+        <c:axId val="1997097392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1997084080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Product Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997097392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1997097392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1997084080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1733,6 +2200,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3210,6 +3717,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3358,15 +4370,53 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B42FC30-E43D-4E4F-91A3-21FC36678EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A2:B9" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="11" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3381,34 +4431,48 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DD53462D-BE37-42E9-9B55-0B711B9175B7}" name="Country"/>
     <tableColumn id="2" xr3:uid="{1F6F0254-2499-4323-B53E-74C9B0E47F11}" name="Continent"/>
-    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A12:B19" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B19">
     <sortCondition descending="1" ref="B12:B19"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="H2:K8" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5330AE4A-68FE-4A43-A81F-CCD019609408}" name="Table5" displayName="Table5" ref="D12:E15" totalsRowShown="0">
+  <autoFilter ref="D12:E15" xr:uid="{5330AE4A-68FE-4A43-A81F-CCD019609408}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:E15">
+    <sortCondition descending="1" ref="E12:E15"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2F620921-136E-4B0F-90B0-C5635A7C09BF}" name="CategoryName"/>
+    <tableColumn id="2" xr3:uid="{F05E8641-453B-4B48-A8AC-3C8472037D73}" name="Revenue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3713,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,8 +4786,8 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
@@ -3731,15 +4795,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3757,16 +4821,16 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3786,16 +4850,16 @@
       <c r="F3" s="5">
         <v>105362939186.95</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>9333382531.4799995</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>25608695842.73</v>
       </c>
     </row>
@@ -3815,16 +4879,16 @@
       <c r="F4" s="5">
         <v>22634456601.869999</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>5322640389.9499998</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>11159932709.809999</v>
       </c>
       <c r="L4" s="6"/>
@@ -3845,16 +4909,16 @@
       <c r="F5" s="5">
         <v>15521494001.08</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>22634456601.869999</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>109559793045.33</v>
       </c>
     </row>
@@ -3874,16 +4938,16 @@
       <c r="F6" s="5">
         <v>11938826982.370001</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>15521494001.08</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>21276405602.060001</v>
       </c>
     </row>
@@ -3903,16 +4967,16 @@
       <c r="F7" s="5">
         <v>9333382531.4799995</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>11938826982.370001</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>29550834956.5</v>
       </c>
     </row>
@@ -3932,16 +4996,16 @@
       <c r="F8" s="5">
         <v>5322640389.9499998</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>105362939186.95</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>338971891689.64001</v>
       </c>
     </row>
@@ -3960,6 +5024,12 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3968,13 +5038,25 @@
       <c r="B13" s="4">
         <v>80450596.980000004</v>
       </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5514174492.6599998</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4">
         <v>53607801.210000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5">
+        <v>128262539.06999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -3983,6 +5065,12 @@
       </c>
       <c r="B15" s="4">
         <v>14377925.6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>101053213.75</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -4052,11 +5140,12 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4093,8 +5182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F051380-4BEF-435C-AA7C-2043D7613094}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AdventureWorks Result Table and Visualization in.xlsx
+++ b/AdventureWorks Result Table and Visualization in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\git\AdventureWork_SQL_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A41FB-31B0-40A0-81BF-5DA9E5B222AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6793A02-3A42-4D6A-B8B2-E5E64154E418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Country</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>Clothing</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Touring-1000 Yellow, 60</t>
+  </si>
+  <si>
+    <t>Touring-3000 Yellow, 62</t>
+  </si>
+  <si>
+    <t>Touring-3000 Yellow, 50</t>
+  </si>
+  <si>
+    <t>Road-650 Black, 44</t>
+  </si>
+  <si>
+    <t>Road Tire Tube</t>
+  </si>
+  <si>
+    <t>Water Bottle - 30 oz.</t>
+  </si>
+  <si>
+    <t>Road-650 Red, 52</t>
+  </si>
+  <si>
+    <t>Touring-3000 Blue, 54</t>
+  </si>
+  <si>
+    <t>Touring-3000 Blue, 50</t>
+  </si>
+  <si>
+    <t>AWC Logo Cap</t>
+  </si>
+  <si>
+    <t>Top 10 Product by Revenue</t>
   </si>
 </sst>
 </file>
@@ -186,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,12 +248,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
@@ -2080,6 +2122,309 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00,,&quot;M&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$H$13:$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Road Tire Tube</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AWC Logo Cap</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Touring-3000 Blue, 50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Touring-3000 Blue, 54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Road-650 Red, 52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Water Bottle - 30 oz.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Road-650 Black, 44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Touring-3000 Yellow, 50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Touring-3000 Yellow, 62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Touring-1000 Yellow, 60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$I$13:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9480.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9056526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9193262.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9227410.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9303822.6999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9402836.6400000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9554435.4299999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9679501.6500000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9984607.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97794551.400000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-718D-4A7C-9B5E-EB1B94BDC52A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="22"/>
+        <c:axId val="1146533568"/>
+        <c:axId val="1146519424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146533568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146519424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146519424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1146533568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2240,6 +2585,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4222,6 +4607,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4408,15 +5296,53 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137EE509-7A42-47BF-8CDF-771D10FD515E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A2:B9" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="12" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4431,34 +5357,34 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DD53462D-BE37-42E9-9B55-0B711B9175B7}" name="Country"/>
     <tableColumn id="2" xr3:uid="{1F6F0254-2499-4323-B53E-74C9B0E47F11}" name="Continent"/>
-    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A12:B19" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B19">
     <sortCondition descending="1" ref="B12:B19"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="H2:K8" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4472,7 +5398,21 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2F620921-136E-4B0F-90B0-C5635A7C09BF}" name="CategoryName"/>
-    <tableColumn id="2" xr3:uid="{F05E8641-453B-4B48-A8AC-3C8472037D73}" name="Revenue" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F05E8641-453B-4B48-A8AC-3C8472037D73}" name="Revenue" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA9810C0-37FC-40CD-B206-DD9687F6C5BC}" name="Table6" displayName="Table6" ref="H12:I22" totalsRowShown="0">
+  <autoFilter ref="H12:I22" xr:uid="{DA9810C0-37FC-40CD-B206-DD9687F6C5BC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H13:I22">
+    <sortCondition ref="I12:I22"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3470E625-30B1-4281-A07A-C818D5126140}" name="Product"/>
+    <tableColumn id="2" xr3:uid="{37E3BEA0-8B89-4BE4-956A-2D78A13598C1}" name="Revenue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4775,22 +5715,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5017,6 +5957,12 @@
         <v>1977844.86</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
@@ -5028,6 +5974,12 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5044,8 +5996,14 @@
       <c r="E13" s="5">
         <v>5514174492.6599998</v>
       </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9480.24</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -5057,6 +6015,12 @@
       </c>
       <c r="E14" s="5">
         <v>128262539.06999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="5">
+        <v>9056526</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -5072,6 +6036,12 @@
       <c r="E15" s="5">
         <v>101053213.75</v>
       </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5">
+        <v>9193262.4000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5080,35 +6050,84 @@
       <c r="B16" s="4">
         <v>4607537.9400000004</v>
       </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5">
+        <v>9227410.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4">
         <v>4279008.83</v>
       </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="5">
+        <v>9303822.6999999993</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4">
         <v>1983988.04</v>
       </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9402836.6400000006</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="4">
         <v>1594335.38</v>
       </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="5">
+        <v>9554435.4299999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5">
+        <v>9679501.6500000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="5">
+        <v>9984607.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="5">
+        <v>97794551.400000006</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F8">
     <cfRule type="dataBar" priority="2">
@@ -5140,12 +6159,13 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5182,8 +6202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F051380-4BEF-435C-AA7C-2043D7613094}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AdventureWorks Result Table and Visualization in.xlsx
+++ b/AdventureWorks Result Table and Visualization in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\git\AdventureWork_SQL_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6793A02-3A42-4D6A-B8B2-E5E64154E418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C896F-C92C-45D5-9AD1-DE2ADCDAACAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Country</t>
   </si>
@@ -139,6 +139,39 @@
   <si>
     <t>Top 10 Product by Revenue</t>
   </si>
+  <si>
+    <t>Patch Kit/8 Patches</t>
+  </si>
+  <si>
+    <t>Half-Finger Gloves, L</t>
+  </si>
+  <si>
+    <t>Mountain-400-W Silver, 42</t>
+  </si>
+  <si>
+    <t>Long-Sleeve Logo Jersey, L</t>
+  </si>
+  <si>
+    <t>Mountain-400-W Silver, 46</t>
+  </si>
+  <si>
+    <t>Short-Sleeve Classic Jersey, XL</t>
+  </si>
+  <si>
+    <t>Touring-1000 Blue, 60</t>
+  </si>
+  <si>
+    <t>Touring-1000 Yellow, 46</t>
+  </si>
+  <si>
+    <t>Touring-3000 Yellow, 44</t>
+  </si>
+  <si>
+    <t>Road-650 Black, 60</t>
+  </si>
+  <si>
+    <t>Bottom 10 Product by Revenue</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,12 +284,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
@@ -5338,11 +5377,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A2:B9" xr:uid="{A5046506-A53F-4A19-A4AB-49C5F7AA740D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{39FC9E9B-A9C7-4690-AA64-CBD7425312D7}" name="Country" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{46CA5008-F9D7-4E0E-9CC4-0EEF868D347A}" name="Revenue" dataDxfId="13" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5357,34 +5396,34 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DD53462D-BE37-42E9-9B55-0B711B9175B7}" name="Country"/>
     <tableColumn id="2" xr3:uid="{1F6F0254-2499-4323-B53E-74C9B0E47F11}" name="Continent"/>
-    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{303CA877-370E-42E6-9F28-5922824BB2A5}" name="Revenue" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEA894C8-FA26-4E04-A0B1-D7B5073D9751}" name="Table3" displayName="Table3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A12:B19" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B19">
     <sortCondition descending="1" ref="B12:B19"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{655041AC-D0F6-48E6-AB15-B52D317C0222}" name="Country" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1189E7FA-E58B-4F9A-BEB8-1E80A02F496D}" name="Revenue" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}" name="Table4" displayName="Table4" ref="H2:K8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="H2:K8" xr:uid="{84B1F8CE-E552-4355-BCDA-AAFA2D0E57D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5398,7 +5437,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2F620921-136E-4B0F-90B0-C5635A7C09BF}" name="CategoryName"/>
-    <tableColumn id="2" xr3:uid="{F05E8641-453B-4B48-A8AC-3C8472037D73}" name="Revenue" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F05E8641-453B-4B48-A8AC-3C8472037D73}" name="Revenue" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5412,7 +5451,21 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3470E625-30B1-4281-A07A-C818D5126140}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{37E3BEA0-8B89-4BE4-956A-2D78A13598C1}" name="Revenue" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{37E3BEA0-8B89-4BE4-956A-2D78A13598C1}" name="Revenue" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{29B1AA53-1202-4AEE-9D9E-32A96B3BBB0D}" name="Table7" displayName="Table7" ref="A23:B33" totalsRowShown="0">
+  <autoFilter ref="A23:B33" xr:uid="{29B1AA53-1202-4AEE-9D9E-32A96B3BBB0D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:B33">
+    <sortCondition ref="B23:B33"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FEEEB37C-061B-4D51-8786-C265E44AA0D5}" name="Product"/>
+    <tableColumn id="2" xr3:uid="{782E77DE-219E-4595-B4DC-55A2E170066A}" name="Revenue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5715,10 +5768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,6 +6169,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="12"/>
       <c r="H22" t="s">
         <v>22</v>
       </c>
@@ -6123,11 +6180,100 @@
         <v>97794551.400000006</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1191104.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1442926.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5">
+        <v>10124949.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10190561.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>10725151.619999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10930545.449999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5">
+        <v>11343850.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="5">
+        <v>11532659.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5">
+        <v>102333820.68000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5">
+        <v>109896090.72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F8">
     <cfRule type="dataBar" priority="2">
@@ -6159,13 +6305,14 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6202,7 +6349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F051380-4BEF-435C-AA7C-2043D7613094}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>

--- a/AdventureWorks Result Table and Visualization in.xlsx
+++ b/AdventureWorks Result Table and Visualization in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documents\git\AdventureWork_SQL_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C896F-C92C-45D5-9AD1-DE2ADCDAACAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB4EFD-0502-41C1-BDFA-00BE0278EDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2C717484-B181-49D5-8300-6653BA01AD8E}"/>
   </bookViews>
@@ -86,12 +86,6 @@
     <t>Revenue by Location(Country and Continent) for Internet Sales and Reseller</t>
   </si>
   <si>
-    <t>internetRevenue</t>
-  </si>
-  <si>
-    <t>resellerRevenue</t>
-  </si>
-  <si>
     <t>CategoryName</t>
   </si>
   <si>
@@ -105,36 +99,6 @@
   </si>
   <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>Touring-1000 Yellow, 60</t>
-  </si>
-  <si>
-    <t>Touring-3000 Yellow, 62</t>
-  </si>
-  <si>
-    <t>Touring-3000 Yellow, 50</t>
-  </si>
-  <si>
-    <t>Road-650 Black, 44</t>
-  </si>
-  <si>
-    <t>Road Tire Tube</t>
-  </si>
-  <si>
-    <t>Water Bottle - 30 oz.</t>
-  </si>
-  <si>
-    <t>Road-650 Red, 52</t>
-  </si>
-  <si>
-    <t>Touring-3000 Blue, 54</t>
-  </si>
-  <si>
-    <t>Touring-3000 Blue, 50</t>
-  </si>
-  <si>
-    <t>AWC Logo Cap</t>
   </si>
   <si>
     <t>Top 10 Product by Revenue</t>
@@ -171,6 +135,42 @@
   </si>
   <si>
     <t>Bottom 10 Product by Revenue</t>
+  </si>
+  <si>
+    <t>Mountain-200 Black, 38</t>
+  </si>
+  <si>
+    <t>Mountain-200 Black, 42</t>
+  </si>
+  <si>
+    <t>Mountain-200 Silver, 38</t>
+  </si>
+  <si>
+    <t>Mountain-200 Black, 46</t>
+  </si>
+  <si>
+    <t>Mountain-200 Silver, 46</t>
+  </si>
+  <si>
+    <t>Mountain-200 Silver, 42</t>
+  </si>
+  <si>
+    <t>Road-150 Red, 56</t>
+  </si>
+  <si>
+    <t>Road-150 Red, 62</t>
+  </si>
+  <si>
+    <t>Road-250 Black, 48</t>
+  </si>
+  <si>
+    <t>Road-350-W Yellow, 40</t>
+  </si>
+  <si>
+    <t>InternetRevenue</t>
+  </si>
+  <si>
+    <t>ResellerRevenue</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
@@ -1282,15 +1285,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1678,15 +1679,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2130,15 +2129,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2267,34 +2264,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Road Tire Tube</c:v>
+                  <c:v>Mountain-200 Black, 38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AWC Logo Cap</c:v>
+                  <c:v>Mountain-200 Black, 42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Touring-3000 Blue, 50</c:v>
+                  <c:v>Mountain-200 Silver, 38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Touring-3000 Blue, 54</c:v>
+                  <c:v>Mountain-200 Black, 46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Road-650 Red, 52</c:v>
+                  <c:v>Mountain-200 Silver, 46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Water Bottle - 30 oz.</c:v>
+                  <c:v>Mountain-200 Silver, 42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Road-650 Black, 44</c:v>
+                  <c:v>Road-150 Red, 56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Touring-3000 Yellow, 50</c:v>
+                  <c:v>Road-150 Red, 62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Touring-3000 Yellow, 62</c:v>
+                  <c:v>Road-250 Black, 48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Touring-1000 Yellow, 60</c:v>
+                  <c:v>Road-350-W Yellow, 40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2306,34 +2303,34 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9480.24</c:v>
+                  <c:v>428863632.99159998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9056526</c:v>
+                  <c:v>361345273.04460001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9193262.4000000004</c:v>
+                  <c:v>314967971.7216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9227410.5</c:v>
+                  <c:v>298453039.435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9303822.6999999993</c:v>
+                  <c:v>286538979.93839997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9402836.6400000006</c:v>
+                  <c:v>283256857.09439999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9554435.4299999997</c:v>
+                  <c:v>190006137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9679501.6500000004</c:v>
+                  <c:v>161108028.47999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9984607.5</c:v>
+                  <c:v>142851679.42500001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97794551.400000006</c:v>
+                  <c:v>136831037.58000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,15 +2430,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5422,10 +5417,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8E9B3578-6653-4544-B87C-599A62BCF548}" name="Country" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A0E50B63-BC1D-4835-A0EF-BCD3236D5843}" name="Continent" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="internetRevenue" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="resellerRevenue" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DD9CF20F-E75F-468F-8246-F596000D247E}" name="InternetRevenue" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{685B7053-F8E1-4DBA-BB72-F927404EC2EE}" name="ResellerRevenue" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5447,7 +5442,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA9810C0-37FC-40CD-B206-DD9687F6C5BC}" name="Table6" displayName="Table6" ref="H12:I22" totalsRowShown="0">
   <autoFilter ref="H12:I22" xr:uid="{DA9810C0-37FC-40CD-B206-DD9687F6C5BC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H13:I22">
-    <sortCondition ref="I12:I22"/>
+    <sortCondition descending="1" ref="I12:I22"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3470E625-30B1-4281-A07A-C818D5126140}" name="Product"/>
@@ -5770,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA393632-1487-4D1B-8203-D6D5BC778427}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5783,7 +5778,7 @@
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5821,10 +5816,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -6012,7 +6007,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -6024,13 +6019,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>1</v>
@@ -6044,16 +6039,16 @@
         <v>80450596.980000004</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5">
         <v>5514174492.6599998</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" s="5">
-        <v>9480.24</v>
+        <v>428863632.99159998</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,16 +6059,16 @@
         <v>53607801.210000001</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5">
         <v>128262539.06999999</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I14" s="5">
-        <v>9056526</v>
+        <v>361345273.04460001</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -6084,16 +6079,16 @@
         <v>14377925.6</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5">
         <v>101053213.75</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I15" s="5">
-        <v>9193262.4000000004</v>
+        <v>314967971.7216</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -6104,10 +6099,10 @@
         <v>4607537.9400000004</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I16" s="5">
-        <v>9227410.5</v>
+        <v>298453039.435</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6118,10 +6113,10 @@
         <v>4279008.83</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I17" s="5">
-        <v>9303822.6999999993</v>
+        <v>286538979.93839997</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6132,10 +6127,10 @@
         <v>1983988.04</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I18" s="5">
-        <v>9402836.6400000006</v>
+        <v>283256857.09439999</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -6146,43 +6141,43 @@
         <v>1594335.38</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I19" s="5">
-        <v>9554435.4299999997</v>
+        <v>190006137</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I20" s="5">
-        <v>9679501.6500000004</v>
+        <v>161108028.47999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I21" s="5">
-        <v>9984607.5</v>
+        <v>142851679.42500001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B22" s="12"/>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I22" s="5">
-        <v>97794551.400000006</v>
+        <v>136831037.58000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -6190,7 +6185,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <v>1191104.57</v>
@@ -6198,7 +6193,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5">
         <v>1442926.31</v>
@@ -6206,7 +6201,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5">
         <v>10124949.42</v>
@@ -6214,7 +6209,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>10190561.48</v>
@@ -6222,7 +6217,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>10725151.619999999</v>
@@ -6230,7 +6225,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>10930545.449999999</v>
@@ -6238,7 +6233,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>11343850.35</v>
@@ -6246,7 +6241,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>11532659.65</v>
@@ -6254,7 +6249,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5">
         <v>102333820.68000001</v>
@@ -6262,7 +6257,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5">
         <v>109896090.72</v>
@@ -6349,8 +6344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F051380-4BEF-435C-AA7C-2043D7613094}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
